--- a/2019 ПКО. Шаблон модульної розрахункової роботи.xlsx
+++ b/2019 ПКО. Шаблон модульної розрахункової роботи.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\АСПІРАНТУРА\- Аспірантура ІК\2019\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="11355" windowHeight="7680"/>
+    <workbookView xWindow="360" yWindow="48" windowWidth="11352" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Опис роботи" sheetId="2" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>BERLIN52</t>
   </si>
@@ -124,12 +119,6 @@
     <t>та практичне їх дослідження</t>
   </si>
   <si>
-    <t xml:space="preserve"> - тактова частота поцесора ... Ггц</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - об'єм ОЗУ ... Гб</t>
-  </si>
-  <si>
     <t>Увага! Порядок задач не змінювати!</t>
   </si>
   <si>
@@ -414,30 +403,6 @@
   </si>
   <si>
     <t>Розрахункова робота: &lt;ПІБ&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>Інший алгоритм (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>указати, який</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -454,15 +419,39 @@
       <t>одинаковими у кожного виконавця</t>
     </r>
   </si>
+  <si>
+    <t>Табуйований пошук</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - об'єм ОЗУ 8 Гб</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - тактова частота поцесора 2.2 Ггц</t>
+  </si>
+  <si>
+    <t>[8, 9, 42, 32, 50, 10, 51, 13, 12, 46, 25, 26, 27, 11, 45, 24, 3, 5, 14, 4, 23, 47, 36, 37, 39, 38, 35, 34, 33, 43, 15, 49, 19, 22, 28, 29, 41, 6, 1, 20, 16, 2, 17, 30, 21, 0, 48, 31, 44, 18, 40, 7]</t>
+  </si>
+  <si>
+    <t>[53, 18, 34, 6, 52, 13, 58, 65, 10, 64, 37, 57, 9, 30, 54, 24, 49, 17, 23, 48, 22, 55, 15, 62, 32, 1, 29, 3, 75, 74, 67, 5, 50, 2, 43, 31, 8, 38, 71, 11, 39, 16, 25, 66, 33, 45, 7, 26, 51, 44, 28, 47, 46, 20, 73, 27, 61, 72, 0, 42, 40, 41, 63, 21, 60, 68, 35, 70, 59, 69, 19, 36, 4, 14, 56, 12]</t>
+  </si>
+  <si>
+    <t>[12, 86, 41, 1, 56, 14, 42, 37, 85, 13, 43, 15, 60, 97, 36, 99, 90, 84, 92, 95, 98, 58, 91, 96, 94, 93, 5, 88, 51, 17, 82, 59, 4, 83, 16, 44, 7, 45, 63, 62, 31, 89, 9, 61, 10, 18, 48, 35, 46, 47, 81, 6, 87, 30, 69, 29, 19, 50, 8, 80, 32, 78, 2, 76, 67, 79, 11, 25, 27, 26, 68, 0, 75, 49, 64, 65, 70, 34, 33, 77, 28, 23, 3, 53, 54, 24, 66, 22, 38, 55, 74, 40, 21, 73, 71, 72, 20, 39, 57, 52, 100]</t>
+  </si>
+  <si>
+    <t>[24, 42, 21, 50, 23, 54, 27, 49, 43, 44, 28, 53, 29, 26, 25, 20, 40, 41, 22, 19, 18, 39, 38, 10, 51, 14, 12, 13, 35, 4, 6, 5, 47, 31, 46, 55, 34, 1, 2, 33, 52, 0, 3, 48, 7, 8, 36, 9, 37, 11, 32, 15, 16, 17, 45, 30]</t>
+  </si>
+  <si>
+    <t>[21, 48, 49, 22, 59, 25, 63, 29, 52, 30, 53, 31, 62, 51, 24, 23, 35, 20, 19, 46, 45, 10, 60, 15, 0, 61, 1, 37, 3, 14, 47, 5, 7, 8, 40, 41, 9, 42, 11, 12, 43, 44, 36, 39, 6, 57, 58, 34, 56, 64, 38, 2, 4, 32, 54, 28, 27, 26, 55, 33, 50, 18, 17, 16, 13]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -521,13 +510,6 @@
     <font>
       <sz val="14"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -805,9 +787,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -844,7 +826,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -875,12 +857,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -889,24 +871,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -946,22 +931,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,9 +963,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1017,9 +1003,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1051,10 +1037,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1086,10 +1071,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1262,19 +1246,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.399999999999999">
       <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
@@ -1285,10 +1269,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="17.399999999999999">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1296,7 +1280,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.399999999999999">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
         <v>24</v>
@@ -1307,7 +1291,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15">
       <c r="B5" s="33" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1305,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15">
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
@@ -1335,7 +1319,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15">
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
         <v>18</v>
@@ -1349,7 +1333,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15">
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
         <v>19</v>
@@ -1363,7 +1347,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15">
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
         <v>20</v>
@@ -1377,7 +1361,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15">
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
         <v>21</v>
@@ -1391,7 +1375,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1403,7 +1387,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15">
       <c r="B12" s="32" t="s">
         <v>22</v>
       </c>
@@ -1417,10 +1401,10 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6">
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1431,10 +1415,10 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15">
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1445,10 +1429,10 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15">
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1459,48 +1443,48 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="15" customFormat="1" ht="15">
       <c r="C16" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18">
       <c r="B17" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.399999999999999">
+      <c r="A21" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="24"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="18">
       <c r="B24" s="25"/>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="18">
       <c r="B25" s="24"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="D27" s="39"/>
     </row>
   </sheetData>
@@ -1516,46 +1500,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="21.6" customHeight="1">
       <c r="C2" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="21">
       <c r="E4" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.399999999999999">
       <c r="H5" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
@@ -1563,75 +1547,75 @@
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="21" thickBot="1">
       <c r="H6" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C7" s="50" t="s">
+    <row r="7" spans="1:13">
+      <c r="C7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-    </row>
-    <row r="9" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:13" ht="21" thickBot="1">
+      <c r="C9" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="20.25" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>10</v>
@@ -1640,14 +1624,14 @@
         <v>9</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="18">
       <c r="A13" s="34">
         <v>1</v>
       </c>
@@ -1660,16 +1644,28 @@
       <c r="D13" s="8">
         <v>7542</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>8867</v>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10">
+        <f>(F13-D13)/D13 * 100</f>
+        <v>-100</v>
+      </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="8">
+        <v>7867</v>
+      </c>
+      <c r="J13" s="10">
+        <f>(I13-D13)/D13 * 100</f>
+        <v>4.309201803235216</v>
+      </c>
+      <c r="K13" s="6">
+        <v>600</v>
+      </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18">
       <c r="A14" s="34">
         <v>2</v>
       </c>
@@ -1682,16 +1678,28 @@
       <c r="D14" s="8">
         <v>1608</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <v>2036</v>
+      </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <f t="shared" ref="G14:G17" si="0">(F14-D14)/D14 * 100</f>
+        <v>-100</v>
+      </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="8">
+        <v>2036</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" ref="J14:J17" si="1">(I14-D14)/D14 * 100</f>
+        <v>26.616915422885572</v>
+      </c>
+      <c r="K14" s="44">
+        <v>600</v>
+      </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18">
       <c r="A15" s="34">
         <v>3</v>
       </c>
@@ -1704,16 +1712,28 @@
       <c r="D15" s="8">
         <v>1839</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8">
+        <v>2260</v>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="8">
+        <v>2260</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="1"/>
+        <v>22.892876563349645</v>
+      </c>
+      <c r="K15" s="44">
+        <v>600</v>
+      </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18">
       <c r="A16" s="34">
         <v>4</v>
       </c>
@@ -1726,16 +1746,28 @@
       <c r="D16" s="8">
         <v>538</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <v>646</v>
+      </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="6"/>
+      <c r="I16" s="8">
+        <v>572</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3197026022304827</v>
+      </c>
+      <c r="K16" s="44">
+        <v>600</v>
+      </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="18">
       <c r="A17" s="34">
         <v>5</v>
       </c>
@@ -1748,16 +1780,28 @@
       <c r="D17" s="8">
         <v>629</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8">
+        <v>764</v>
+      </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="6"/>
+      <c r="I17" s="8">
+        <v>725</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="1"/>
+        <v>15.262321144674084</v>
+      </c>
+      <c r="K17" s="44">
+        <v>600</v>
+      </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="18">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -1770,13 +1814,13 @@
       <c r="K18" s="22"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+    <row r="19" spans="1:12" ht="18">
+      <c r="B19" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
@@ -1785,10 +1829,10 @@
       <c r="K19" s="22"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.6">
       <c r="B20" s="26"/>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" customHeight="1">
       <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
@@ -1796,7 +1840,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18">
       <c r="B22" s="29" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1848,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="18">
       <c r="B23" s="29" t="s">
         <v>15</v>
       </c>
@@ -1812,50 +1856,50 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:12" ht="18">
       <c r="C25" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18">
+      <c r="C26" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20.399999999999999">
+      <c r="C27" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="C26" s="24" t="s">
+    <row r="28" spans="1:12" ht="20.399999999999999">
+      <c r="C28" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="C27" s="24" t="s">
+    <row r="29" spans="1:12" ht="18">
+      <c r="C29" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="C28" s="24" t="s">
+    <row r="30" spans="1:12" ht="18">
+      <c r="C30" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20.399999999999999">
+      <c r="C31" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18">
+      <c r="C32" s="24" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="C29" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="C30" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="C31" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1882,52 +1926,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="31.2">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" spans="1:10" ht="18">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -1941,8 +1985,11 @@
         <v>7542</v>
       </c>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -1956,8 +2003,11 @@
         <v>1608</v>
       </c>
       <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -1971,8 +2021,11 @@
         <v>1839</v>
       </c>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -1986,8 +2039,11 @@
         <v>538</v>
       </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="F7" s="63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -2001,6 +2057,9 @@
         <v>629</v>
       </c>
       <c r="E8" s="8"/>
+      <c r="F8" s="63" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/2019 ПКО. Шаблон модульної розрахункової роботи.xlsx
+++ b/2019 ПКО. Шаблон модульної розрахункової роботи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="48" windowWidth="11352" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="48" windowWidth="11352" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Опис роботи" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>BERLIN52</t>
   </si>
@@ -77,9 +77,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>Детермінований локальний пошук</t>
-  </si>
-  <si>
     <t>Параметри комп'ютера:</t>
   </si>
   <si>
@@ -429,19 +426,25 @@
     <t xml:space="preserve"> - тактова частота поцесора 2.2 Ггц</t>
   </si>
   <si>
-    <t>[8, 9, 42, 32, 50, 10, 51, 13, 12, 46, 25, 26, 27, 11, 45, 24, 3, 5, 14, 4, 23, 47, 36, 37, 39, 38, 35, 34, 33, 43, 15, 49, 19, 22, 28, 29, 41, 6, 1, 20, 16, 2, 17, 30, 21, 0, 48, 31, 44, 18, 40, 7]</t>
-  </si>
-  <si>
     <t>[53, 18, 34, 6, 52, 13, 58, 65, 10, 64, 37, 57, 9, 30, 54, 24, 49, 17, 23, 48, 22, 55, 15, 62, 32, 1, 29, 3, 75, 74, 67, 5, 50, 2, 43, 31, 8, 38, 71, 11, 39, 16, 25, 66, 33, 45, 7, 26, 51, 44, 28, 47, 46, 20, 73, 27, 61, 72, 0, 42, 40, 41, 63, 21, 60, 68, 35, 70, 59, 69, 19, 36, 4, 14, 56, 12]</t>
   </si>
   <si>
     <t>[12, 86, 41, 1, 56, 14, 42, 37, 85, 13, 43, 15, 60, 97, 36, 99, 90, 84, 92, 95, 98, 58, 91, 96, 94, 93, 5, 88, 51, 17, 82, 59, 4, 83, 16, 44, 7, 45, 63, 62, 31, 89, 9, 61, 10, 18, 48, 35, 46, 47, 81, 6, 87, 30, 69, 29, 19, 50, 8, 80, 32, 78, 2, 76, 67, 79, 11, 25, 27, 26, 68, 0, 75, 49, 64, 65, 70, 34, 33, 77, 28, 23, 3, 53, 54, 24, 66, 22, 38, 55, 74, 40, 21, 73, 71, 72, 20, 39, 57, 52, 100]</t>
   </si>
   <si>
-    <t>[24, 42, 21, 50, 23, 54, 27, 49, 43, 44, 28, 53, 29, 26, 25, 20, 40, 41, 22, 19, 18, 39, 38, 10, 51, 14, 12, 13, 35, 4, 6, 5, 47, 31, 46, 55, 34, 1, 2, 33, 52, 0, 3, 48, 7, 8, 36, 9, 37, 11, 32, 15, 16, 17, 45, 30]</t>
-  </si>
-  <si>
     <t>[21, 48, 49, 22, 59, 25, 63, 29, 52, 30, 53, 31, 62, 51, 24, 23, 35, 20, 19, 46, 45, 10, 60, 15, 0, 61, 1, 37, 3, 14, 47, 5, 7, 8, 40, 41, 9, 42, 11, 12, 43, 44, 36, 39, 6, 57, 58, 34, 56, 64, 38, 2, 4, 32, 54, 28, 27, 26, 55, 33, 50, 18, 17, 16, 13]</t>
+  </si>
+  <si>
+    <t>АІВ</t>
+  </si>
+  <si>
+    <t>[46, 55, 34, 1, 2, 33, 26, 25, 24, 42, 21, 50, 23, 54, 27, 49, 44, 53, 43, 28, 29, 52, 0, 31, 47, 48, 3, 5, 6, 4, 7, 8, 36, 9, 37, 10, 51, 14, 13, 35, 32, 11, 17, 16, 15, 12, 39, 38, 18, 19, 20, 40, 41, 22, 45, 30]</t>
+  </si>
+  <si>
+    <t>[26, 25, 46, 12, 13, 51, 10, 50, 32, 42, 9, 8, 7, 40, 18, 44, 31, 48, 0, 21, 30, 17, 2, 16, 20, 41, 6, 1, 29, 22, 19, 49, 28, 15, 45, 43, 33, 34, 35, 38, 39, 36, 37, 47, 23, 4, 14, 5, 3, 24, 11, 27]</t>
+  </si>
+  <si>
+    <t>Піскуна Олексія Андрійовича</t>
   </si>
 </sst>
 </file>
@@ -789,15 +792,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1259,233 +1259,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.399999999999999">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.399999999999999">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="B5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="15">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="15">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="15">
+      <c r="B12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="15">
+      <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="17.399999999999999">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="B5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="15">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="15">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="15">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="15">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="15">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="B12" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" ht="15">
-      <c r="C16" s="15" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="17" spans="1:4" ht="18">
-      <c r="B17" s="16" t="s">
-        <v>49</v>
+      <c r="B17" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.399999999999999">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.399999999999999">
+      <c r="A21" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18">
+      <c r="A22" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" ht="18">
+      <c r="A23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.399999999999999">
-      <c r="A21" s="41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18">
-      <c r="A22" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="18">
-      <c r="B24" s="25"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="18">
-      <c r="B25" s="24"/>
+      <c r="B25" s="23"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="D27" s="39"/>
+      <c r="D27" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1503,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1522,388 +1522,406 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21.6" customHeight="1">
-      <c r="C2" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="21">
-      <c r="E4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.399999999999999">
+      <c r="H5" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="20.399999999999999">
-      <c r="H5" s="37" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="21" thickBot="1">
+      <c r="H6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" ht="21" thickBot="1">
-      <c r="H6" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="C7" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="C7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="21" thickBot="1">
-      <c r="C9" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="C9" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45" t="s">
+      <c r="F11" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="18">
+      <c r="A13" s="33">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
         <v>52</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="18">
-      <c r="A13" s="34">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>52</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>7542</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>8867</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10">
+      <c r="F13" s="7">
+        <v>7545</v>
+      </c>
+      <c r="G13" s="9">
         <f>(F13-D13)/D13 * 100</f>
-        <v>-100</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="8">
+        <v>3.9777247414478918E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>611</v>
+      </c>
+      <c r="I13" s="7">
         <v>7867</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f>(I13-D13)/D13 * 100</f>
         <v>4.309201803235216</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>600</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="18">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>56</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>1608</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>2036</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10">
+      <c r="F14" s="7">
+        <v>1960</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" ref="G14:G17" si="0">(F14-D14)/D14 * 100</f>
-        <v>-100</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="8">
+        <v>21.890547263681594</v>
+      </c>
+      <c r="H14" s="10">
+        <v>70</v>
+      </c>
+      <c r="I14" s="7">
         <v>2036</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" ref="J14:J17" si="1">(I14-D14)/D14 * 100</f>
         <v>26.616915422885572</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="43">
         <v>600</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>3</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>65</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>1839</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>2260</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10">
+      <c r="F15" s="7">
+        <v>2260</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>22.892876563349645</v>
+      </c>
+      <c r="H15" s="10">
+        <v>80</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2260</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="1"/>
+        <v>22.892876563349645</v>
+      </c>
+      <c r="K15" s="43">
+        <v>600</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="18">
+      <c r="A16" s="33">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>76</v>
+      </c>
+      <c r="D16" s="7">
+        <v>538</v>
+      </c>
+      <c r="E16" s="7">
+        <v>646</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="8">
-        <v>2260</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="H16" s="10"/>
+      <c r="I16" s="7">
+        <v>572</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" si="1"/>
-        <v>22.892876563349645</v>
-      </c>
-      <c r="K15" s="44">
+        <v>6.3197026022304827</v>
+      </c>
+      <c r="K16" s="43">
         <v>600</v>
       </c>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="18">
-      <c r="A16" s="34">
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="18">
+      <c r="A17" s="33">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>76</v>
-      </c>
-      <c r="D16" s="8">
-        <v>538</v>
-      </c>
-      <c r="E16" s="8">
-        <v>646</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10">
+      <c r="C17" s="3">
+        <v>101</v>
+      </c>
+      <c r="D17" s="7">
+        <v>629</v>
+      </c>
+      <c r="E17" s="7">
+        <v>764</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="8">
-        <v>572</v>
-      </c>
-      <c r="J16" s="10">
-        <f t="shared" si="1"/>
-        <v>6.3197026022304827</v>
-      </c>
-      <c r="K16" s="44">
-        <v>600</v>
-      </c>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="18">
-      <c r="A17" s="34">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>101</v>
-      </c>
-      <c r="D17" s="8">
-        <v>629</v>
-      </c>
-      <c r="E17" s="8">
-        <v>764</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="8">
+      <c r="H17" s="10"/>
+      <c r="I17" s="7">
         <v>725</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f t="shared" si="1"/>
         <v>15.262321144674084</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="43">
         <v>600</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="18">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="18">
-      <c r="B19" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="9"/>
+      <c r="B19" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="15.6">
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1">
-      <c r="B21" s="13" t="s">
-        <v>13</v>
+      <c r="B21" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="18">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:12" ht="18">
+      <c r="B23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="18">
-      <c r="B23" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="18">
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18">
+      <c r="C26" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18">
-      <c r="C26" s="24" t="s">
+    <row r="27" spans="1:12" ht="20.399999999999999">
+      <c r="C27" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.399999999999999">
-      <c r="C27" s="24" t="s">
+    <row r="28" spans="1:12" ht="20.399999999999999">
+      <c r="C28" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.399999999999999">
-      <c r="C28" s="24" t="s">
+    <row r="29" spans="1:12" ht="18">
+      <c r="C29" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="C29" s="24" t="s">
+    <row r="30" spans="1:12" ht="18">
+      <c r="C30" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20.399999999999999">
+      <c r="C31" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18">
+      <c r="C32" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="C30" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="20.399999999999999">
-      <c r="C31" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="C32" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="C9:F9"/>
@@ -1914,6 +1932,8 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -1929,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1940,125 +1960,131 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="31.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="F2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>52</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>7542</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7">
+        <v>7545</v>
+      </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>56</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1608</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7">
+        <v>1960</v>
+      </c>
       <c r="F5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>65</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>1839</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7">
+        <v>2260</v>
+      </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>76</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>538</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="63" t="s">
-        <v>56</v>
+      <c r="E7" s="7"/>
+      <c r="F7" s="62" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>101</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>629</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="63" t="s">
-        <v>57</v>
+      <c r="E8" s="7"/>
+      <c r="F8" s="62" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/2019 ПКО. Шаблон модульної розрахункової роботи.xlsx
+++ b/2019 ПКО. Шаблон модульної розрахункової роботи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="48" windowWidth="11352" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="48" windowWidth="11352" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Опис роботи" sheetId="2" r:id="rId1"/>
@@ -429,9 +429,6 @@
     <t>[53, 18, 34, 6, 52, 13, 58, 65, 10, 64, 37, 57, 9, 30, 54, 24, 49, 17, 23, 48, 22, 55, 15, 62, 32, 1, 29, 3, 75, 74, 67, 5, 50, 2, 43, 31, 8, 38, 71, 11, 39, 16, 25, 66, 33, 45, 7, 26, 51, 44, 28, 47, 46, 20, 73, 27, 61, 72, 0, 42, 40, 41, 63, 21, 60, 68, 35, 70, 59, 69, 19, 36, 4, 14, 56, 12]</t>
   </si>
   <si>
-    <t>[12, 86, 41, 1, 56, 14, 42, 37, 85, 13, 43, 15, 60, 97, 36, 99, 90, 84, 92, 95, 98, 58, 91, 96, 94, 93, 5, 88, 51, 17, 82, 59, 4, 83, 16, 44, 7, 45, 63, 62, 31, 89, 9, 61, 10, 18, 48, 35, 46, 47, 81, 6, 87, 30, 69, 29, 19, 50, 8, 80, 32, 78, 2, 76, 67, 79, 11, 25, 27, 26, 68, 0, 75, 49, 64, 65, 70, 34, 33, 77, 28, 23, 3, 53, 54, 24, 66, 22, 38, 55, 74, 40, 21, 73, 71, 72, 20, 39, 57, 52, 100]</t>
-  </si>
-  <si>
     <t>[21, 48, 49, 22, 59, 25, 63, 29, 52, 30, 53, 31, 62, 51, 24, 23, 35, 20, 19, 46, 45, 10, 60, 15, 0, 61, 1, 37, 3, 14, 47, 5, 7, 8, 40, 41, 9, 42, 11, 12, 43, 44, 36, 39, 6, 57, 58, 34, 56, 64, 38, 2, 4, 32, 54, 28, 27, 26, 55, 33, 50, 18, 17, 16, 13]</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>Піскуна Олексія Андрійовича</t>
+  </si>
+  <si>
+    <t>[26, 100, 27, 75, 49, 0, 68, 69, 30, 87, 6, 17, 81, 47, 18, 10, 61, 9, 29, 19, 50, 8, 80, 32, 78, 2, 76, 67, 79, 11, 25, 39, 52, 57, 12, 1, 72, 20, 71, 73, 21, 40, 74, 55, 22, 66, 38, 24, 54, 3, 53, 23, 28, 77, 33, 34, 70, 64, 65, 31, 89, 62, 63, 48, 35, 46, 45, 7, 44, 82, 59, 4, 83, 16, 60, 15, 85, 37, 43, 13, 41, 42, 14, 56, 86, 96, 91, 36, 97, 99, 90, 84, 92, 98, 95, 58, 94, 93, 5, 88, 51]</t>
   </si>
 </sst>
 </file>
@@ -1503,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1528,7 +1528,7 @@
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21">
@@ -1598,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -1763,12 +1763,16 @@
       <c r="E16" s="7">
         <v>646</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>576</v>
+      </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="H16" s="10"/>
+        <v>7.0631970260223049</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1804</v>
+      </c>
       <c r="I16" s="7">
         <v>572</v>
       </c>
@@ -1797,12 +1801,16 @@
       <c r="E17" s="7">
         <v>764</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>672</v>
+      </c>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>6.8362480127186016</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1960</v>
+      </c>
       <c r="I17" s="7">
         <v>725</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
@@ -1949,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2008,7 +2016,7 @@
         <v>7545</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18">
@@ -2028,7 +2036,7 @@
         <v>1960</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18">
@@ -2048,7 +2056,7 @@
         <v>2260</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18">
@@ -2064,7 +2072,9 @@
       <c r="D7" s="7">
         <v>538</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>572</v>
+      </c>
       <c r="F7" s="62" t="s">
         <v>54</v>
       </c>
@@ -2082,9 +2092,11 @@
       <c r="D8" s="7">
         <v>629</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>672</v>
+      </c>
       <c r="F8" s="62" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
